--- a/Docs/Missing Games (16 November 2025).xlsx
+++ b/Docs/Missing Games (16 November 2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unofficial-RA-DATs\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21F53B5-77E5-47C5-A927-1FDE1EEBD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F14AAC-45F1-431F-9EFA-967CE49D62BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Sega Genesis" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="12 - Sony Playstation" sheetId="12" r:id="rId6"/>
     <sheet name="14 - SNK Neo Geo Pocket" sheetId="6" r:id="rId7"/>
     <sheet name="15 - Sega Game Gear" sheetId="7" r:id="rId8"/>
-    <sheet name="21 - Sony PlayStation 2" sheetId="8" r:id="rId9"/>
-    <sheet name="27 - Arcade" sheetId="9" r:id="rId10"/>
-    <sheet name="33 - Sega SG-1000" sheetId="10" r:id="rId11"/>
-    <sheet name="38 - Apple II" sheetId="13" r:id="rId12"/>
-    <sheet name="41 - Sony Playstation Portable" sheetId="11" r:id="rId13"/>
-    <sheet name="47 - NEC PC8801" sheetId="14" r:id="rId14"/>
+    <sheet name="16 - Nintendo GameCube" sheetId="15" r:id="rId9"/>
+    <sheet name="21 - Sony PlayStation 2" sheetId="8" r:id="rId10"/>
+    <sheet name="27 - Arcade" sheetId="9" r:id="rId11"/>
+    <sheet name="33 - Sega SG-1000" sheetId="10" r:id="rId12"/>
+    <sheet name="38 - Apple II" sheetId="13" r:id="rId13"/>
+    <sheet name="41 - Sony Playstation Portable" sheetId="11" r:id="rId14"/>
+    <sheet name="47 - NEC PC8801" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="613">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -1868,6 +1869,15 @@
   </si>
   <si>
     <t>060775afe9e8e847ff3bbad125e6a1ab</t>
+  </si>
+  <si>
+    <t>Pikmin 2 - Regrown (Hack)</t>
+  </si>
+  <si>
+    <t>493ece9091315b6e4c9f13c38e454bfe</t>
+  </si>
+  <si>
+    <t>Not sure what version rom this is nor where or how to obtain it.</t>
   </si>
 </sst>
 </file>
@@ -2351,6 +2361,358 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="98.85546875" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2398,7 +2760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2443,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3C4D5-8105-4AFE-8DDD-C1834B6448C4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2530,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C369"/>
   <sheetViews>
@@ -4458,7 +4820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57818AC2-4463-4A09-8140-251C396204BF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4539,7 +4901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4567,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
@@ -4578,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
@@ -4589,7 +4951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
@@ -4600,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
@@ -4622,7 +4984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4633,7 +4995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
@@ -4644,7 +5006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>26</v>
       </c>
@@ -4655,7 +5017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>28</v>
       </c>
@@ -4666,7 +5028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
@@ -4677,7 +5039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>34</v>
       </c>
@@ -4699,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>36</v>
       </c>
@@ -4710,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>38</v>
       </c>
@@ -4721,7 +5083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>40</v>
       </c>
@@ -4732,7 +5094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>42</v>
       </c>
@@ -4743,7 +5105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +5116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>46</v>
       </c>
@@ -4765,7 +5127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>48</v>
       </c>
@@ -4776,7 +5138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>50</v>
       </c>
@@ -4787,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +5160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>54</v>
       </c>
@@ -4809,7 +5171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>56</v>
       </c>
@@ -4820,7 +5182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>58</v>
       </c>
@@ -4831,7 +5193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>60</v>
       </c>
@@ -4842,7 +5204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>62</v>
       </c>
@@ -4853,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>64</v>
       </c>
@@ -4864,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>66</v>
       </c>
@@ -4875,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>68</v>
       </c>
@@ -4886,7 +5248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>70</v>
       </c>
@@ -4897,7 +5259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>72</v>
       </c>
@@ -4908,7 +5270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>74</v>
       </c>
@@ -4919,7 +5281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>76</v>
       </c>
@@ -4930,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>78</v>
       </c>
@@ -4941,7 +5303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>80</v>
       </c>
@@ -4952,7 +5314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>82</v>
       </c>
@@ -4963,7 +5325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>84</v>
       </c>
@@ -4974,7 +5336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>86</v>
       </c>
@@ -4985,7 +5347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>88</v>
       </c>
@@ -4996,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>90</v>
       </c>
@@ -5007,7 +5369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>92</v>
       </c>
@@ -5018,7 +5380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>94</v>
       </c>
@@ -5029,7 +5391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>96</v>
       </c>
@@ -5040,7 +5402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>98</v>
       </c>
@@ -5051,7 +5413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>100</v>
       </c>
@@ -5062,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>102</v>
       </c>
@@ -5073,7 +5435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>104</v>
       </c>
@@ -5084,7 +5446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>106</v>
       </c>
@@ -5095,7 +5457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>108</v>
       </c>
@@ -5106,7 +5468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>110</v>
       </c>
@@ -5117,7 +5479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>112</v>
       </c>
@@ -5128,7 +5490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>114</v>
       </c>
@@ -5139,7 +5501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>116</v>
       </c>
@@ -5150,7 +5512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>118</v>
       </c>
@@ -5161,7 +5523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>120</v>
       </c>
@@ -5172,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>122</v>
       </c>
@@ -5183,7 +5545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>124</v>
       </c>
@@ -5194,7 +5556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>126</v>
       </c>
@@ -5205,7 +5567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>128</v>
       </c>
@@ -5216,7 +5578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>130</v>
       </c>
@@ -5227,7 +5589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>132</v>
       </c>
@@ -5238,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
         <v>134</v>
       </c>
@@ -5249,7 +5611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>136</v>
       </c>
@@ -5260,7 +5622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>138</v>
       </c>
@@ -5271,7 +5633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>140</v>
       </c>
@@ -5282,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>142</v>
       </c>
@@ -5293,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>144</v>
       </c>
@@ -5304,7 +5666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>146</v>
       </c>
@@ -5315,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>148</v>
       </c>
@@ -5326,7 +5688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>150</v>
       </c>
@@ -5337,7 +5699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>152</v>
       </c>
@@ -5348,7 +5710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
         <v>154</v>
       </c>
@@ -5359,7 +5721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>156</v>
       </c>
@@ -5370,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>158</v>
       </c>
@@ -5381,7 +5743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>160</v>
       </c>
@@ -5392,7 +5754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>162</v>
       </c>
@@ -5403,7 +5765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>164</v>
       </c>
@@ -5414,7 +5776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>166</v>
       </c>
@@ -5425,7 +5787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>168</v>
       </c>
@@ -5436,7 +5798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>170</v>
       </c>
@@ -5447,7 +5809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>172</v>
       </c>
@@ -5458,7 +5820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>174</v>
       </c>
@@ -5469,7 +5831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>176</v>
       </c>
@@ -5480,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>178</v>
       </c>
@@ -5491,7 +5853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>180</v>
       </c>
@@ -5502,7 +5864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>182</v>
       </c>
@@ -5513,7 +5875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>184</v>
       </c>
@@ -5524,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>186</v>
       </c>
@@ -5535,7 +5897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>188</v>
       </c>
@@ -5546,7 +5908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
         <v>190</v>
       </c>
@@ -5557,7 +5919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>192</v>
       </c>
@@ -5568,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
         <v>194</v>
       </c>
@@ -5579,7 +5941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>196</v>
       </c>
@@ -5590,7 +5952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
         <v>198</v>
       </c>
@@ -5601,7 +5963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
         <v>200</v>
       </c>
@@ -5612,7 +5974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
         <v>202</v>
       </c>
@@ -5623,7 +5985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
         <v>204</v>
       </c>
@@ -5634,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
         <v>206</v>
       </c>
@@ -5645,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
         <v>208</v>
       </c>
@@ -5656,7 +6018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A101" s="35" t="s">
         <v>210</v>
       </c>
@@ -5667,7 +6029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A102" s="35" t="s">
         <v>212</v>
       </c>
@@ -5678,7 +6040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
         <v>214</v>
       </c>
@@ -5689,7 +6051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
         <v>216</v>
       </c>
@@ -5700,7 +6062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A105" s="35" t="s">
         <v>218</v>
       </c>
@@ -5711,7 +6073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
         <v>220</v>
       </c>
@@ -5722,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
         <v>222</v>
       </c>
@@ -5733,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
         <v>224</v>
       </c>
@@ -5744,7 +6106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
         <v>226</v>
       </c>
@@ -5755,7 +6117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A110" s="35" t="s">
         <v>228</v>
       </c>
@@ -5766,7 +6128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
         <v>230</v>
       </c>
@@ -5777,7 +6139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
         <v>232</v>
       </c>
@@ -5788,7 +6150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
         <v>234</v>
       </c>
@@ -5799,7 +6161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A114" s="35" t="s">
         <v>236</v>
       </c>
@@ -5810,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A115" s="35" t="s">
         <v>238</v>
       </c>
@@ -5821,7 +6183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
         <v>240</v>
       </c>
@@ -5832,7 +6194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>242</v>
       </c>
@@ -5843,7 +6205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
         <v>244</v>
       </c>
@@ -5854,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
         <v>246</v>
       </c>
@@ -5865,7 +6227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
         <v>248</v>
       </c>
@@ -5876,7 +6238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
         <v>250</v>
       </c>
@@ -5887,7 +6249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
         <v>252</v>
       </c>
@@ -5898,7 +6260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A123" s="35" t="s">
         <v>254</v>
       </c>
@@ -5909,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
         <v>256</v>
       </c>
@@ -5920,7 +6282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A125" s="35" t="s">
         <v>258</v>
       </c>
@@ -5931,7 +6293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
         <v>260</v>
       </c>
@@ -5942,7 +6304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A127" s="35" t="s">
         <v>262</v>
       </c>
@@ -5953,7 +6315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A128" s="35" t="s">
         <v>264</v>
       </c>
@@ -5964,7 +6326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
         <v>266</v>
       </c>
@@ -5975,7 +6337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A130" s="35" t="s">
         <v>268</v>
       </c>
@@ -5986,7 +6348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A131" s="35" t="s">
         <v>270</v>
       </c>
@@ -5997,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A132" s="35" t="s">
         <v>272</v>
       </c>
@@ -6008,7 +6370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A133" s="35" t="s">
         <v>274</v>
       </c>
@@ -6019,7 +6381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A134" s="35" t="s">
         <v>276</v>
       </c>
@@ -6030,7 +6392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
         <v>278</v>
       </c>
@@ -6041,7 +6403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
         <v>280</v>
       </c>
@@ -6052,7 +6414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A137" s="35" t="s">
         <v>282</v>
       </c>
@@ -6063,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A138" s="35" t="s">
         <v>284</v>
       </c>
@@ -6074,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A139" s="35" t="s">
         <v>286</v>
       </c>
@@ -6085,7 +6447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A140" s="35" t="s">
         <v>288</v>
       </c>
@@ -6096,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A141" s="35" t="s">
         <v>290</v>
       </c>
@@ -6107,7 +6469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A142" s="35" t="s">
         <v>292</v>
       </c>
@@ -6118,7 +6480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
         <v>294</v>
       </c>
@@ -6129,7 +6491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A144" s="35" t="s">
         <v>296</v>
       </c>
@@ -6140,7 +6502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A145" s="35" t="s">
         <v>298</v>
       </c>
@@ -6151,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A146" s="35" t="s">
         <v>300</v>
       </c>
@@ -6162,7 +6524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A147" s="35" t="s">
         <v>302</v>
       </c>
@@ -6173,7 +6535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A148" s="35" t="s">
         <v>304</v>
       </c>
@@ -6184,7 +6546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A149" s="35" t="s">
         <v>306</v>
       </c>
@@ -6195,7 +6557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A150" s="35" t="s">
         <v>308</v>
       </c>
@@ -6206,7 +6568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A151" s="35" t="s">
         <v>310</v>
       </c>
@@ -6217,7 +6579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A152" s="35" t="s">
         <v>312</v>
       </c>
@@ -6228,7 +6590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A153" s="35" t="s">
         <v>314</v>
       </c>
@@ -6239,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A154" s="35" t="s">
         <v>316</v>
       </c>
@@ -6250,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A155" s="35" t="s">
         <v>318</v>
       </c>
@@ -6261,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
         <v>320</v>
       </c>
@@ -6272,7 +6634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A157" s="35" t="s">
         <v>322</v>
       </c>
@@ -6283,7 +6645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A158" s="35" t="s">
         <v>324</v>
       </c>
@@ -6294,7 +6656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A159" s="35" t="s">
         <v>326</v>
       </c>
@@ -6305,7 +6667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A160" s="35" t="s">
         <v>328</v>
       </c>
@@ -6316,7 +6678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A161" s="35" t="s">
         <v>330</v>
       </c>
@@ -6327,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
         <v>332</v>
       </c>
@@ -6338,7 +6700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A163" s="35" t="s">
         <v>334</v>
       </c>
@@ -6349,7 +6711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A164" s="35" t="s">
         <v>336</v>
       </c>
@@ -6360,7 +6722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A165" s="35" t="s">
         <v>338</v>
       </c>
@@ -6371,7 +6733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
         <v>340</v>
       </c>
@@ -6382,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A167" s="35" t="s">
         <v>342</v>
       </c>
@@ -6393,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A168" s="35" t="s">
         <v>344</v>
       </c>
@@ -6404,7 +6766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A169" s="35" t="s">
         <v>346</v>
       </c>
@@ -6415,7 +6777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A170" s="35" t="s">
         <v>348</v>
       </c>
@@ -6426,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A171" s="35" t="s">
         <v>350</v>
       </c>
@@ -6437,7 +6799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A172" s="35" t="s">
         <v>352</v>
       </c>
@@ -6448,7 +6810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A173" s="35" t="s">
         <v>354</v>
       </c>
@@ -6459,7 +6821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A174" s="35" t="s">
         <v>356</v>
       </c>
@@ -6470,7 +6832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A175" s="35" t="s">
         <v>358</v>
       </c>
@@ -6481,7 +6843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A176" s="35" t="s">
         <v>360</v>
       </c>
@@ -6492,7 +6854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A177" s="35" t="s">
         <v>362</v>
       </c>
@@ -6503,7 +6865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A178" s="35" t="s">
         <v>364</v>
       </c>
@@ -6514,7 +6876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A179" s="35" t="s">
         <v>366</v>
       </c>
@@ -6525,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A180" s="35" t="s">
         <v>368</v>
       </c>
@@ -6536,7 +6898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A181" s="35" t="s">
         <v>370</v>
       </c>
@@ -6547,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" s="19" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A182" s="35" t="s">
         <v>372</v>
       </c>
@@ -7406,7 +7768,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7446,353 +7808,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21206FC3-F148-4E8B-970C-C2D10F4AC196}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="98.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="B3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>499</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>